--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/53_Konya_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/53_Konya_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6621786-0882-40EA-95B9-2BD23DFE8246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F695527F-7AF3-4C3E-B217-E03E3245548E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{CDD8B02D-84D1-46B5-94E4-339492BE9A15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{51FC8C41-881F-4572-A0B9-5CCBDCC1127C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -957,13 +957,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1D77A63D-0FCC-4920-984B-93FA81D36428}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F41893E0-27CD-4B69-B596-61A7E14CD5E1}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{66D10571-B69E-4281-AF1D-0147AD1C7268}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{615F02F7-4B5E-4612-A01C-B2822E7FF96F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{441344F1-9268-4DF2-AEB1-529DDA1CCC96}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{B7841205-7F45-4F23-B1DD-AF40E919B139}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8CFEFB7D-D1E2-4DB2-833B-F9F83466652C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A5EA776D-3C51-4B27-A592-4C18B6A4149D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A73082F2-01F2-4E2C-9365-EDFA6EAC1E90}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{CF90AB9E-3CB6-4FA5-9242-90E100C726DA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B591C45A-B5F0-4842-BBE4-F51B58C2B7FF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F2194C11-51F1-4A39-AD18-3BBE56D0CDB9}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{6DC303FF-5D52-4703-9232-C7C17049E439}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D14B0FBE-0327-42A9-B647-B3A8B4387B2D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1333,7 +1333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE3CA90-3624-49DD-B5AD-769A7D32384B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466C257F-3069-4B8B-8AFA-D2EC99B3EE20}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2642,18 +2642,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8543B61C-05DC-40DD-BF79-22C502045D65}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3551A74-5F1F-4611-A6EE-DDE2556AA5E5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0B03012D-D2E5-426D-8BD3-60100E7F8849}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99D05FC5-8DD1-4372-8D83-AE43C88DBAE2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3DF5C0E5-5659-4736-B612-2972E25A257B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B42EEEE5-9098-4A4F-802E-5B1BCEFEBF0A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFA8161B-4B85-427E-84ED-7EA36CEE9213}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD11DB03-DAD5-46E4-BD8A-DDA3E0820639}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7FE3C3F0-2BAF-4524-BEC8-AFE168681C57}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{22DE1F97-ABB4-430E-AC76-DF9DD1BDCC43}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{67633A86-445B-4CDB-9662-675D4654C007}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{877031C1-413E-42BF-8C80-4F091E89F973}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{313518A9-4FBA-4859-8C4B-0E84BDBCEC34}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D98FD37-C1C0-4393-BBC6-2A7E8555C5F1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DECBED9C-3E9D-4C97-B79D-08EA45D399E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8207352B-85BC-4F6D-85EA-74E8C32F216D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20BDF7C1-70A8-42C3-BDDB-577986347832}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1CEF8CAC-8B34-43FB-9E3C-F5014A629E5A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF5ADEFD-F2DB-4A82-BFB3-3FA07E603F71}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDA5979A-5A96-40E1-83A8-D4F46350557B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4F4A51C-AED1-4464-A806-51A8DB357A95}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C112A6F1-52A9-40C0-8C61-58B4FBE1D28D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7516ACBE-C4D1-44E6-8479-120AD260B1D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{84A86E11-EB46-44E2-9809-66DCF794D143}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2666,7 +2666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0C6C0-792B-4F59-BE0B-DD5819E56156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D810D9-93B8-4F6B-A2F7-FDCAFF5005FA}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3946,18 +3946,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9163DD5D-7B5F-47D2-9098-7A6ABD8C0143}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37C99783-4E82-465F-9ED5-2574E503D923}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{50A96295-E224-41DE-9877-B8AE721729B0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{21454089-F1DB-448B-A557-62976D840A87}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B9FC341-F7AD-4BB3-BFEF-BB2AC264009F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{922A65E8-232B-4600-83ED-DF7AAB7C7267}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1A75A9E-D8B7-47BB-8A39-EB8B1281628F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0EBC66D-95DA-4D76-AB1E-C72B08278BFC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CD06014E-008D-4664-A37F-5ECE6C95B51F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{31F019BB-0E67-46E8-9E63-4F45D49604B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A07C98C-855B-40E4-92AF-C878350AA36E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E683D9C5-8473-493D-80F3-588D9B7CA30C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF88AFBF-5ED8-4ACF-A7F1-AEEA79857D9E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5AC237E8-4E8A-4982-8370-0DA28B8AF86F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F18E95AD-BE6B-4465-8016-CBB61D7C4B45}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EFC48E20-F264-40CC-96FF-77D88C9AF542}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDB1FD06-C922-46EC-8B47-86FB0829BF01}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{87449E90-DA22-4596-A6E1-A72C23E125AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1F238B2-9EBA-4501-8D82-C4480E49A7B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CE85CD5-8180-42B3-90A9-BD64E326515B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1612D9C-330C-4116-9088-4B3AD7C58092}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B8D11CE3-7A85-42CE-BEAF-CDAC62858D85}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0D15A26-431A-40E5-8324-F5FDB1B2580C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56659574-94A6-4AB3-A3F6-EC8D8B09A829}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3970,7 +3970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09AA4D-77DE-46E6-8A00-B892B3C06DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A9ACE5-414D-4404-8AAC-941940B5BDC9}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5246,18 +5246,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84600F7E-7933-41AB-91F5-6F03131E97E0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4EB1E83-ECDD-4D22-B971-CEA7E0F57782}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B9EB3E25-3F99-4D3E-AA26-645EE9061ECC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53440A60-25E1-4FBD-AA28-6703DE4737F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71C26C80-B85E-46C0-810D-79F7C36EDCCE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6435CE8C-F5DC-4AC4-B13B-3D55389591EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFCC7B79-A121-4C86-A019-80D91F4370D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71EC0EBE-670B-4547-8AB0-960374967CEE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6BF742CD-C707-44BB-BC20-E0D875DCBCB7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{31C09CC4-D234-42A6-A89E-D749DC67789F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CDA0A02-096A-464A-9C32-B1EAE20396A7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{17A495CA-637A-4DF0-B5BA-FA46847A334F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D5557B4-86D1-4D2F-B29E-A9B2A2213799}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{43B52E7F-C86A-4952-9D15-97A6251415F9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{383D6FF0-0DAD-435F-A9FC-BFB7E63F4D03}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5ECAF572-BFA9-4C7E-BA35-49ED94EDB347}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{337CAC72-822D-4A6B-8397-343755E8386F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F24BC4D6-76EA-41EB-AB73-60EA8077E9EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C0DCF49F-3E7E-4521-B234-9343EF3B2656}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24BBDE68-6515-402F-A5BB-5EC2D797A46C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1FD438E8-A712-4CC3-91AD-A68E660B9300}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{634303BD-0E8A-4AFF-A136-72EB7AB7DE5D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED44737A-5A8D-488A-B1E2-60FA58DB8D54}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB9358E2-D8C9-461A-91A6-C81E48E0C0D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5270,7 +5270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64477F4C-CC4F-4BB1-9FBA-F47BE5AD1D10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5265D3EE-4335-406C-AA85-28F814FF2DB8}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6538,18 +6538,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2DCCB018-27A1-4F32-B864-ED6BC910985E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B13BE85C-FC5C-4EC0-AE5E-F1A7BF717DB9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D4A44DB-D5A6-4A2E-A6BE-4FA6D76F659A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6E3ADC5E-6B5E-4DF4-9B73-095C3B4A0FF6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1125AD79-945C-4AC5-8D20-A548C73C88B0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BDAB9278-BF88-443E-8D62-0132D12BB9CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C965113F-7B8F-4F50-90E8-EFD0B43D780C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22897430-DDD2-4588-A34E-4D6B22E9E250}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4CB43157-16BD-40F2-8BB9-98F6BB9FEFA1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B0BDE80E-1C66-4C93-9A31-644048FD9360}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18A071A4-8A59-497E-8334-04F9E3348983}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6FC72721-EB0C-4331-983E-732B0542AED8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37999E8F-EE67-4CFD-9618-74D0E7F1342E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8563B03F-6466-401D-BA17-5CD3858C9CDB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55477F7C-3AB3-4929-90D2-BF17F3A24993}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0DD80FB3-8B9A-4099-B5E5-6611555A4FB5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E9EC42B2-FE30-483B-B2A2-49323FC1B934}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B4A6410A-F1B9-40BC-9E14-6F7271BE6B93}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCCED558-6248-4EEC-8517-F9815C4FACD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8490A0D5-039D-4A23-8427-FA0E26B74FF4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2A953B9-1654-4495-97FA-DB7E7CF00110}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4771684C-42EC-4D95-9299-0B52F946BF3B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1AC7F4F-32D0-4E29-8E5C-B5EF713D2095}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{855915AA-5DEF-4FFC-9ACD-F805D8BC4CD9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6562,7 +6562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F9BF7F-8491-46CE-A06E-BE22A1B2A7B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E3828F-CF7E-4824-BEBE-DE1F977665B5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7863,18 +7863,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{793B2FBC-734E-4ED6-B881-EFE9D441E959}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F02DD452-DD36-46B2-ADA1-E2B970831359}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B4FD15AA-F522-4C06-9ED3-2D34DADBCBBC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C79A1AA0-982F-4D03-BC73-622A0AE69F5A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0293BFFB-412B-4F01-8E2D-AF7B35E0F177}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FB4B5446-FD98-4884-9534-53C0122F0DD9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E1EDFD4-AD92-406A-AAC6-FA6ED534B2C3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FBFAA43-7774-40A2-87B5-F9060D41073A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2F83B39-3A75-4C6C-9412-BAE1D9393F9F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{313F2316-0F5E-4371-89E2-F132F038F91E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95FDE452-6737-4B6B-9B5F-12FB803FE44F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0E31FA2F-8108-4B76-BF9E-D33E92A84036}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB92FDA3-75EC-4D61-B073-42A8A2176747}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{588B5F3C-A378-4D51-B9B7-B89E49672784}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FB2E1AA7-96AB-4990-9F7F-381C78EEA54B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4148F0A8-7F98-4059-9AB3-EEEABC5399B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B99392F9-3A94-483B-A6BB-DDF1F35464DE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A4237331-47E6-4A1E-9448-9D1505DE9772}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54754CBB-6E41-4A74-A0C0-B6EFBB35B997}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{115C15B2-131A-4754-83D5-C53B0989CC2D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E0F5843-E559-4549-A68B-E35A9C267963}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8D074960-6D0B-48B9-8D55-07DF8B66F864}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E7DBE64-E2FC-402B-8CC6-67CE3233C203}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{071B0E34-87C3-4E6D-ACD3-14F8251711E3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7887,7 +7887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89ACC2C5-DA9C-4B5D-811D-B8D7CCD16CF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8263E31-8C5C-453B-A546-2BEB56C21C3A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9188,18 +9188,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48FD30DE-6947-4DD2-91A1-4A2BFC43DC71}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF4AC20B-7651-4806-9E7A-3FCBA47AE0C9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A02D50E4-2B3A-45FC-B16D-CD94D3E9F16B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68543350-C2CE-4F54-8CA7-7F8945CC448A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36E40390-337A-408A-84DC-D05383BE4C78}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DA7798F3-78B5-4BAE-8CC2-A89F956E2079}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9C9AED3-8334-4A48-A33D-E8C0B99007E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{450F067F-0C3D-4120-9F8B-57DD5909F5BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E674CCBA-5A3C-42BC-971F-CBA5C8010EEB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C3D82A80-FBA9-470F-8BC7-B36A47B0A1BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09FA674E-ECAA-4616-BB73-485DA2E16632}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F5876AF-2311-4059-ACD8-67BC135E00FE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01BDD22D-6C6E-460C-919B-4C7F29103C39}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BBACB869-67B0-4F34-B561-E170145E5A0B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A299963E-1E30-4754-9272-AA8C72AF8820}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BDE2675A-C3B7-48B4-BD88-74D6D415D0A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{861FE26C-F56A-4D35-A4BF-EFE3A36DBEB7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AFCF9B95-C446-40B0-A068-03D630D0F2E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8316BF51-0661-4987-AFDE-94AE52AB287D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F9D9DCB-41CB-41B6-B3CD-AD4EB1A0ABAD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A763A91-DC1F-4D67-BFB5-8C39EE98F5B4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{46A0E4C3-F67F-4716-A747-B456561E1908}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A8BE17D-62C1-4627-B041-EE407528E66A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E532A6E-6058-440D-8E9D-7B70FB041205}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9212,7 +9212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9FCDBC-3A0C-47C8-A06B-29D6BB676D60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B49923B-4EEB-4B2C-B567-48791CAFF015}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10516,18 +10516,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8525C80-ED83-41AA-9B3B-66D8FAD60B60}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8A50FE5-D4E0-4FF8-836A-C510179BAA40}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{43A121E1-6F33-4090-8917-F55FC5EBE48B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6D89D7BF-6FB0-4980-A790-085D42B578F9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3F724591-2546-4A54-9079-5940B2337D29}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F11D57C4-2788-4A23-9A97-E7ECBBC7460C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05BF378B-1392-4C6C-A3C8-398841B43E57}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77C91403-E64B-458C-AF40-0A0EB0366687}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38199923-70DD-47FA-92E2-830CC1429ECB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F35F1563-CA55-4100-ADF8-3CDAB4E54293}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48136BA7-0AC1-4AA7-80C8-8E9A1B58B29F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFA19610-9599-4306-AB78-CE237C8D0B18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46F05B96-B61B-482C-B877-DC7A43F5E486}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC367E34-A4F0-4DFF-A3F9-577FAA56476B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{86E43BEF-6503-4AED-BBCA-0D459767C828}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A3975315-DAB0-4DD0-9FE8-672E07A0272D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89633FA3-B477-4AF5-B385-2CDB9614FA1D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E968693D-1FF4-443C-8F4C-402E59A57421}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8257B43-E8A1-45D5-8EEE-78CE5CA0412B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CE95030-6C4A-4FF9-A8DE-3593CF2894D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2A0D7DC-66AF-4BDC-9810-712E0D1BEEB5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3EA2D0AF-49E2-44DF-9B09-688A4A37AF93}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9AD9CC2-8673-41E2-AFC8-97F1B3DE47DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E22C685E-A4CA-4017-8268-827FDD948E96}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10540,7 +10540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F91B66-0AED-42DF-9B81-D90759B4054A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C092699-1DE8-40F6-9CB7-00E8164FDDAF}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11842,18 +11842,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41F2C815-46EB-45A0-8733-12D53713755F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A477EF4-70E5-4B28-89CB-8859F844F31A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{255F8E34-928A-4E26-A0B8-06CD42E45F18}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CA4F1E4-C84B-4189-A03A-66B7070FA6A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F216E0C8-5C56-4F6A-8AFB-EDBD29C0F5D6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D096ADBA-43E8-47B7-8D72-E3818B022290}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8232586-3077-4465-905D-653BC7E0BBBA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{627BDE9E-869F-4FB5-99E4-668393F726DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F4ED6FF7-228B-440D-9FD7-7E6445AAA319}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5AB32908-5788-4139-B779-24431B74B038}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{510C769B-FE01-45EB-8BDA-3E3C0D8F443A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2C6149C-F4A0-4FC8-80B7-D29EFDC0B019}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69C73F73-D813-4CC6-B608-53B83681955A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0927A746-0722-43BB-AE80-22A5CD408E0F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3E2CA9D-B664-48AB-A02D-1F6EE016D53F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC1603EE-BA75-4D78-9111-9C0DE946CF8A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE779545-B07E-4454-BBCF-AE1FAFD9D82F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{98A88B98-BF0B-49C8-A41B-1ABBA8D58D36}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D7D5355-0EB2-44B5-8AD1-76F67A08E869}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{00CF88A6-9E04-4D51-B083-9E0FCFB80F5C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C7C8414E-261C-408E-888F-04E10A1EE659}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1DA1BA7E-6C50-41F2-AC4E-BE2C53BB3C21}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0F78E0C-84A7-4A4F-BB27-9C6D2B3F3D99}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{41D7974C-798B-4AE7-8811-982C6A0FC80B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11866,7 +11866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29108DD2-FF23-441D-B6E8-64258EBC3503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8AAD45-F2D2-45D5-829B-B14A6C5A77AA}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13160,18 +13160,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FBD9E67-92F0-4A54-AEB0-12A5EBE1D0A7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA1A807A-2305-463C-8F0E-734DAF85DEC1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E5DDE6BC-9862-4599-A512-C5DEAE0A2002}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3796578E-3515-4BB2-B149-BFD4A4B222E1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F217143-D8E7-465B-A61D-4340DAF476F9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0FE1DBF8-599A-40CF-ABF6-8A28F8C2CBEC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10033366-682E-4CEF-A95A-699F0A3EB0A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D585FF79-632A-4FA0-ACC2-8212F187C6A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{77F55D43-829A-46EC-B036-AF25B8C77EE7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{138C287B-6A34-490A-A868-AA1819070876}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{054B61FA-9C6A-449D-BE04-643D2104B3E7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81EE41B5-E65A-4B04-94E5-674AE19CD637}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D185DEA-BC65-45A2-84D8-FB70D4B8605D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EAFCD18D-4663-461D-B07E-49874EB0FAAF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B46E062-62BA-48C8-8FB6-044836D91B10}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{624AA8EB-ED94-4C25-97E3-FE091CFE8992}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D2180FF-A841-459E-9DE0-2FD384E77DE0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9E82C189-592D-4837-B669-0E5B63521C34}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FFED7745-1FF8-463C-8331-614D4C698796}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2BB0F48-B2EE-4E35-A215-EC2B9888A0FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{843A2085-9712-41FB-BC23-AF79B918185D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C4A6A1C4-C300-473D-B2E8-C89F698901DB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFF75910-7966-4E23-905E-FB84BA392DCA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4A82EEF-9C6D-4AF8-B833-B175A4B4A0FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13184,7 +13184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4AAD5B-F40C-4FE5-9A7A-47319F6E166A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524000B4-B3B8-4771-AEDE-B33799BC1552}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14472,18 +14472,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C85E52E5-76C9-437A-ACEE-8D436923D9BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{451A0E44-A187-43A3-BBF2-9BC396C94705}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{530A61B8-7642-4077-A7AC-DEDFA9D7A05D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{327CDF4D-7958-4BB9-850C-425D795DC48A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57C38CF5-E7DE-4EA1-9692-61D8259EC990}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7AD45459-9C92-4E1C-9CAF-716553BB6CA9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61A92E94-92A9-4B13-AD0F-7CF28438CB8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{00352E4B-8637-43E3-BADF-A57E1DDE62A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B96187E-4F08-4936-8F6E-615899D20583}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{718639AF-0540-4138-B850-A331AD39F339}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B5BB5CA-F204-47B7-B4D0-208172E405E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C13E3DB-1CDF-4097-BEC5-5BA98DC677A1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7DC4BCBA-7680-4144-BEE2-812ED74D7EAC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D91B1D5F-ECAD-4FE7-858D-9AEAE42BA084}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B12CF320-236D-4411-87D4-2BAC8E095072}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{008B49DF-FC56-42C5-8F5E-A4F1B4712382}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A02DA42D-9EC4-45C8-ABCA-35D39289A25C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5398EACC-7210-4740-AE99-B0366B3C8B8E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D483763A-D42B-42FF-833C-57F0319EDA95}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A81C8556-60EE-45BC-8737-408E5A67B8AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A65FA6A4-0DEA-4362-B0E3-7C161170FD8D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CC9DF613-DBAE-4643-83E8-EA15459060C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E703890E-A891-4929-B89E-FB440B137B16}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF2792F6-3C71-454B-9167-37CCBC3E2CD6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14496,7 +14496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E571A5F-D8D1-460B-96D7-B73EFAF3FF2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94939632-6440-4147-A5EC-FB90D654975A}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15780,18 +15780,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F73C9A9-28D3-497C-9E5A-5579E6EDCA6B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB3EF6C3-FA88-4075-BD35-17271A4323DA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6716A46C-7BCD-4FAA-830A-E10FA5EC0C8A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{10DEA1F5-3E7D-4001-9140-FB7F5881D934}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{14E1CBBD-4B03-4495-92EE-9D3F5A85DD12}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2763259C-C76C-42A9-A226-EF5326F0314E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{29B02E46-44E3-4F9C-9D6B-380C460972AB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A5D3B78-D287-4FDA-B279-B825877F27BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{363DE797-381D-41BC-A8F8-41B7DE99A478}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{448F230B-41DF-4BB6-B6AC-655E874ABB54}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A58574F-5BA7-4F5B-A64C-D4E47F21032B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9555D4BF-A752-4485-B7DB-C10FD1F8C589}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90EEB8D7-ADD3-4536-BD9C-FFF6FC86F483}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B7777B9-DC86-4D0E-9A10-DDE6B1173B5F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C47FB95A-3F57-49B8-B37B-EFA89E613D92}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3A4F0FE7-F1E2-45DD-9CE7-29FC02C3599C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AE62B8D-2AE0-4962-BF01-ECEBDA761A4E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5CA4E1D6-7064-4A71-82F7-DCDA2FCDF44D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DEFC8288-14E8-4EFB-8D6E-CBC7C3FFBF24}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD1145A3-7708-4D3E-AE15-7AA7D4733CBA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B40F1A19-0FB0-4BD7-994D-73ACD96DD313}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5B9A42DE-A6AD-469B-A655-39F101C65C69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B67A418A-0F07-4BE7-9398-2D72DB82A684}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7EC59276-35EE-4B17-88FC-44DD48E6312F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15804,7 +15804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2417E78B-FD63-4263-85BC-4EB72E6AD4BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46B4919-C190-4F71-8373-7BC1CC7D0B4E}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -17088,18 +17088,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{139AF795-55C1-4FEB-A031-55291F4D3E7C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5833A19A-495D-47C8-B835-D47C775B1442}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7B8E0870-BC72-4C50-86F2-322B83013128}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A402E273-B1A2-4979-91A0-CD7CE5BADD1C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{909639CF-431D-453B-9EBB-5C57F5B39575}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EBAEE2E8-B84E-45F3-9332-F8A2D1296EC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C450E020-1AA8-4B6E-AD42-883AC7905B7C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{396EDC2E-4D8F-442C-8934-C921EBF24B33}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{514D9CC3-05C0-4123-8290-34694FC5F9FA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{22DCBAA7-EE03-4DA8-982B-7BC781F6210D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2914E173-2004-4CA0-B465-78A03A41DA80}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0073C154-E9E2-407E-8444-8EE6AA690804}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A2F8ECC-37B3-4729-9D96-AF2373D3D0AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ABE15ACE-D741-4ADB-983B-BFD36DC195D7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B4403DB-AD1F-48D6-8C0C-36D97152A224}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC436D65-DED0-4756-B8A8-457692BB336D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D357057D-C648-401A-A498-243D0EE5A51D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5AC2A52C-E185-417A-BCDB-DA8F1310A0FD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E05EF696-C992-4948-B8E4-65B093086F21}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55554EF0-9816-4103-9368-B8BD369C6030}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E263D54-ED54-44C7-88F1-D8D99BC10BE2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BD30B925-A0E7-4C47-A03E-EE856ABB2E21}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9779197F-0DA1-4CB1-A869-9561C6442B7E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{99C70DF1-9947-4B33-B48F-DBAAF3AB7E95}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
